--- a/hsweb-expands-office/src/test/resources/测试.xlsx
+++ b/hsweb-expands-office/src/test/resources/测试.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -40,11 +41,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +55,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,7 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,31 +99,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,69 +136,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,55 +220,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,24 +417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -438,6 +428,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +456,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -468,17 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,153 +510,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +1009,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.7" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1025,10 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1053,4 +1061,64 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.99090909090909" defaultRowHeight="13.7" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2+C3</f>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>